--- a/Downloadable Files/Integrated API Specifications_20241211.xlsx
+++ b/Downloadable Files/Integrated API Specifications_20241211.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\차형주-그램\Desktop\API최신버전\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\차형주-그램\Desktop\API-documentation\Downloadable Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7920" tabRatio="852" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7920" tabRatio="852" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="16" r:id="rId1"/>
@@ -7081,18 +7081,66 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7105,54 +7153,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7177,18 +7177,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7201,23 +7219,14 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7226,15 +7235,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7398,10 +7398,10 @@
       <xdr:rowOff>151034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>547077</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:rowOff>371231</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7410,8 +7410,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924744" y="3647269"/>
-          <a:ext cx="3460432" cy="1025584"/>
+          <a:off x="7565869" y="4210149"/>
+          <a:ext cx="2139862" cy="1451120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8884,13 +8884,13 @@
       <c r="I3" s="77"/>
     </row>
     <row r="4" spans="2:9" s="32" customFormat="1" ht="24" customHeight="1">
-      <c r="B4" s="202" t="s">
+      <c r="B4" s="199" t="s">
         <v>1604</v>
       </c>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="204"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="201"/>
       <c r="G4" s="77"/>
       <c r="H4" s="77"/>
       <c r="I4" s="77"/>
@@ -9178,13 +9178,13 @@
       </c>
     </row>
     <row r="27" spans="2:6" ht="68.5" customHeight="1">
-      <c r="B27" s="199" t="s">
+      <c r="B27" s="202" t="s">
         <v>364</v>
       </c>
-      <c r="C27" s="200"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="200"/>
-      <c r="F27" s="201"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="204"/>
     </row>
     <row r="28" spans="2:6" ht="16">
       <c r="B28" s="8"/>
@@ -9261,12 +9261,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B30:F30"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B22:F22"/>
@@ -9275,6 +9269,12 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B30:F30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14633,88 +14633,88 @@
     </row>
     <row r="2" spans="1:5" ht="62.25" customHeight="1">
       <c r="A2" s="39"/>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="175" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161" t="s">
+      <c r="C2" s="176"/>
+      <c r="D2" s="167" t="s">
         <v>1601</v>
       </c>
-      <c r="E2" s="162"/>
+      <c r="E2" s="168"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1">
       <c r="A3" s="39"/>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="165" t="s">
+      <c r="C3" s="162"/>
+      <c r="D3" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="166"/>
+      <c r="E3" s="156"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1">
       <c r="A4" s="39"/>
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="161" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="164"/>
-      <c r="D4" s="165" t="s">
+      <c r="C4" s="162"/>
+      <c r="D4" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="166"/>
+      <c r="E4" s="156"/>
     </row>
     <row r="5" spans="1:5" s="77" customFormat="1" ht="36" customHeight="1">
-      <c r="B5" s="163" t="s">
+      <c r="B5" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="164"/>
-      <c r="D5" s="171" t="s">
+      <c r="C5" s="162"/>
+      <c r="D5" s="163" t="s">
         <v>249</v>
       </c>
-      <c r="E5" s="172"/>
+      <c r="E5" s="164"/>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1">
       <c r="A6" s="39"/>
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="164"/>
-      <c r="D6" s="165" t="s">
+      <c r="C6" s="162"/>
+      <c r="D6" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="166"/>
+      <c r="E6" s="156"/>
     </row>
     <row r="7" spans="1:5" s="62" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="161" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="165" t="s">
+      <c r="C7" s="162"/>
+      <c r="D7" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="166"/>
+      <c r="E7" s="156"/>
     </row>
     <row r="8" spans="1:5" s="62" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="164"/>
-      <c r="D8" s="165" t="s">
+      <c r="C8" s="162"/>
+      <c r="D8" s="155" t="s">
         <v>457</v>
       </c>
-      <c r="E8" s="166"/>
+      <c r="E8" s="156"/>
     </row>
     <row r="9" spans="1:5" ht="35.5" customHeight="1" thickBot="1">
       <c r="A9" s="39"/>
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="170"/>
-      <c r="D9" s="155" t="s">
+      <c r="C9" s="158"/>
+      <c r="D9" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="156"/>
+      <c r="E9" s="160"/>
     </row>
     <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A10" s="39"/>
@@ -14725,44 +14725,44 @@
     </row>
     <row r="11" spans="1:5" ht="26.25" customHeight="1">
       <c r="A11" s="39"/>
-      <c r="B11" s="173" t="s">
+      <c r="B11" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="174"/>
-      <c r="D11" s="161" t="s">
+      <c r="C11" s="166"/>
+      <c r="D11" s="167" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="162"/>
+      <c r="E11" s="168"/>
     </row>
     <row r="12" spans="1:5" ht="26.25" customHeight="1">
       <c r="A12" s="39"/>
-      <c r="B12" s="175" t="s">
+      <c r="B12" s="169" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="176"/>
-      <c r="D12" s="165" t="s">
+      <c r="C12" s="170"/>
+      <c r="D12" s="155" t="s">
         <v>1620</v>
       </c>
-      <c r="E12" s="166"/>
+      <c r="E12" s="156"/>
     </row>
     <row r="13" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A13" s="39"/>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="171" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="155" t="s">
+      <c r="C13" s="172"/>
+      <c r="D13" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="156"/>
+      <c r="E13" s="160"/>
     </row>
     <row r="14" spans="1:5" s="77" customFormat="1" ht="26.25" customHeight="1">
-      <c r="B14" s="157" t="s">
+      <c r="B14" s="173" t="s">
         <v>1602</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
     </row>
     <row r="15" spans="1:5" ht="28.5" customHeight="1"/>
     <row r="17" spans="2:5" ht="15" thickBot="1"/>
@@ -14781,7 +14781,7 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="167" t="s">
+      <c r="B19" s="153" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="95" t="s">
@@ -14795,7 +14795,7 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="167"/>
+      <c r="B20" s="153"/>
       <c r="C20" s="95" t="s">
         <v>403</v>
       </c>
@@ -14807,7 +14807,7 @@
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="167"/>
+      <c r="B21" s="153"/>
       <c r="C21" s="95" t="s">
         <v>404</v>
       </c>
@@ -14819,7 +14819,7 @@
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="167"/>
+      <c r="B22" s="153"/>
       <c r="C22" s="95" t="s">
         <v>411</v>
       </c>
@@ -14831,7 +14831,7 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="167"/>
+      <c r="B23" s="153"/>
       <c r="C23" s="95" t="s">
         <v>122</v>
       </c>
@@ -14843,7 +14843,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="15" thickBot="1">
-      <c r="B24" s="168"/>
+      <c r="B24" s="154"/>
       <c r="C24" s="96" t="s">
         <v>455</v>
       </c>
@@ -14896,6 +14896,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D3:E3"/>
@@ -14912,14 +14920,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -17423,8 +17423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5"/>
@@ -18237,8 +18237,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:G42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:F38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5"/>
@@ -18589,124 +18589,136 @@
       <c r="F29" s="179"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="185" t="s">
+      <c r="B30" s="193" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
-      <c r="F30" s="186"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="194"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="187" t="s">
+      <c r="B31" s="191" t="s">
         <v>295</v>
       </c>
-      <c r="C31" s="188"/>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="192"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="192"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="187" t="s">
+      <c r="B32" s="191" t="s">
         <v>296</v>
       </c>
-      <c r="C32" s="188"/>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="192"/>
+      <c r="E32" s="192"/>
+      <c r="F32" s="192"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="190" t="s">
+      <c r="B33" s="196" t="s">
         <v>1597</v>
       </c>
-      <c r="C33" s="191"/>
-      <c r="D33" s="191"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="192"/>
+      <c r="C33" s="197"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="198"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="189" t="s">
+      <c r="B34" s="195" t="s">
         <v>297</v>
       </c>
-      <c r="C34" s="188"/>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
+      <c r="C34" s="192"/>
+      <c r="D34" s="192"/>
+      <c r="E34" s="192"/>
+      <c r="F34" s="192"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="187" t="s">
+      <c r="B35" s="191" t="s">
         <v>1598</v>
       </c>
-      <c r="C35" s="188"/>
-      <c r="D35" s="188"/>
-      <c r="E35" s="188"/>
-      <c r="F35" s="188"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="192"/>
+      <c r="E35" s="192"/>
+      <c r="F35" s="192"/>
     </row>
     <row r="36" spans="2:6" ht="17" customHeight="1">
-      <c r="B36" s="187" t="s">
+      <c r="B36" s="191" t="s">
         <v>298</v>
       </c>
-      <c r="C36" s="188"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="188"/>
+      <c r="C36" s="192"/>
+      <c r="D36" s="192"/>
+      <c r="E36" s="192"/>
+      <c r="F36" s="192"/>
     </row>
     <row r="37" spans="2:6" ht="30.5" customHeight="1">
-      <c r="B37" s="187" t="s">
+      <c r="B37" s="191" t="s">
         <v>1617</v>
       </c>
-      <c r="C37" s="188"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
+      <c r="C37" s="192"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="192"/>
+      <c r="F37" s="192"/>
     </row>
     <row r="38" spans="2:6" ht="39.5" customHeight="1">
-      <c r="B38" s="187" t="s">
+      <c r="B38" s="191" t="s">
         <v>1618</v>
       </c>
-      <c r="C38" s="188"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="188"/>
+      <c r="C38" s="192"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="192"/>
+      <c r="F38" s="192"/>
     </row>
     <row r="39" spans="2:6" ht="32" customHeight="1">
-      <c r="B39" s="187" t="s">
+      <c r="B39" s="191" t="s">
         <v>1619</v>
       </c>
-      <c r="C39" s="188"/>
-      <c r="D39" s="188"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="188"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="192"/>
     </row>
     <row r="40" spans="2:6" s="77" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B40" s="193" t="s">
+      <c r="B40" s="185" t="s">
         <v>1596</v>
       </c>
-      <c r="C40" s="194"/>
-      <c r="D40" s="194"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="195"/>
+      <c r="C40" s="186"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="187"/>
     </row>
     <row r="41" spans="2:6" ht="12" customHeight="1">
-      <c r="B41" s="193" t="s">
+      <c r="B41" s="185" t="s">
         <v>299</v>
       </c>
-      <c r="C41" s="194"/>
-      <c r="D41" s="194"/>
-      <c r="E41" s="194"/>
-      <c r="F41" s="195"/>
+      <c r="C41" s="186"/>
+      <c r="D41" s="186"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="187"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="196" t="s">
+      <c r="B42" s="188" t="s">
         <v>300</v>
       </c>
-      <c r="C42" s="197"/>
-      <c r="D42" s="197"/>
-      <c r="E42" s="197"/>
-      <c r="F42" s="198"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B33:F33"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B35:F35"/>
@@ -18715,18 +18727,6 @@
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B26:F26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
